--- a/Supporting Documents/Hw 6 scrum.xlsx
+++ b/Supporting Documents/Hw 6 scrum.xlsx
@@ -9,11 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="26100" windowHeight="14520"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="26100" windowHeight="14520" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
-    <sheet name="Sprint NN Backlog" sheetId="2" r:id="rId2"/>
+    <sheet name="Sprint 05 Backlog" sheetId="3" r:id="rId2"/>
+    <sheet name="Sprint 06 Backlog" sheetId="4" r:id="rId3"/>
+    <sheet name="Sprint NN Backlog" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="155">
   <si>
     <t>Product Name:</t>
   </si>
@@ -471,6 +473,27 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>write new controller</t>
+  </si>
+  <si>
+    <t>Complete</t>
+  </si>
+  <si>
+    <t>WD</t>
+  </si>
+  <si>
+    <t>add window</t>
+  </si>
+  <si>
+    <t>add text</t>
+  </si>
+  <si>
+    <t>add buttons</t>
+  </si>
+  <si>
+    <t>Pending</t>
   </si>
 </sst>
 </file>
@@ -596,7 +619,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -669,6 +692,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Heading" xfId="1"/>
@@ -930,6 +954,484 @@
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1300" b="0"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Sprint Burn Chart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint 05 Backlog'!$B$6:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-2086992224"/>
+        <c:axId val="-2074866368"/>
+      </c:lineChart>
+      <c:valAx>
+        <c:axId val="-2074866368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B3B3B3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Days</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="B3B3B3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2086992224"/>
+        <c:crossesAt val="0.0"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="-2086992224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Tasks</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="B3B3B3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2074866368"/>
+        <c:crossesAt val="0.0"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="B3B3B3"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1300" b="0"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Sprint Burn Chart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint 06 Backlog'!$B$6:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2041453984"/>
+        <c:axId val="2041449008"/>
+      </c:lineChart>
+      <c:valAx>
+        <c:axId val="2041449008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B3B3B3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Days</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="B3B3B3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2041453984"/>
+        <c:crossesAt val="0.0"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="2041453984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Tasks</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="B3B3B3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2041449008"/>
+        <c:crossesAt val="0.0"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="B3B3B3"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
   <c:style val="2"/>
   <c:chart>
     <c:title>
@@ -948,6 +1450,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1048,6 +1551,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1098,6 +1602,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="none"/>
@@ -1186,6 +1691,72 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="2654300" y="431800"/>
+    <xdr:ext cx="3751234" cy="1855043"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="shape">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3AFA3108-6570-4512-8ADC-41787D878AC1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="2476500" y="355600"/>
+    <xdr:ext cx="3751234" cy="1855043"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="shape">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3AFA3108-6570-4512-8ADC-41787D878AC1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="4086362" y="229697"/>
@@ -1515,7 +2086,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0"/>
+    <sheetView topLeftCell="A27" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2736,9 +3307,1162 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H86"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="45.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="1">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" s="32">
+        <v>42670</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B3" s="32">
+        <v>42677</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B4" s="31"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="1"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B7" s="1">
+        <f t="shared" ref="B7:B13" si="0">B6</f>
+        <v>4</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B8" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B9" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B10" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B11" s="1">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B13" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>150</v>
+      </c>
+      <c r="F16" t="s">
+        <v>148</v>
+      </c>
+      <c r="G16" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="E17" t="s">
+        <v>150</v>
+      </c>
+      <c r="F17" t="s">
+        <v>151</v>
+      </c>
+      <c r="G17" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="E18" t="s">
+        <v>150</v>
+      </c>
+      <c r="F18" t="s">
+        <v>152</v>
+      </c>
+      <c r="G18" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>4</v>
+      </c>
+      <c r="E19" t="s">
+        <v>150</v>
+      </c>
+      <c r="F19" t="s">
+        <v>153</v>
+      </c>
+      <c r="G19" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A44">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A46">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A47">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A48">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A49">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A50">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A51">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A52">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A53">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A54">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A55">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A56">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A57">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A58">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A59">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A60">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A61">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A62">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A63">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A64">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A65">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A66">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A67">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A68">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A69">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A70">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A71">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A72">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A73">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A74">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A75">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A76">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A77">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A78">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A79">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A80">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A81">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A82">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A83">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A84">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A85">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A86">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H65"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="1">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" s="32">
+        <v>42670</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B3" s="32">
+        <v>42677</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B4" s="31"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="1"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B7" s="1">
+        <f t="shared" ref="B7:B13" si="0">B6</f>
+        <v>4</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B8" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B9" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B10" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B11" s="1">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B13" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>150</v>
+      </c>
+      <c r="F16" t="s">
+        <v>148</v>
+      </c>
+      <c r="G16" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="E17" t="s">
+        <v>150</v>
+      </c>
+      <c r="F17" t="s">
+        <v>151</v>
+      </c>
+      <c r="G17" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="E18" t="s">
+        <v>150</v>
+      </c>
+      <c r="F18" t="s">
+        <v>152</v>
+      </c>
+      <c r="G18" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>4</v>
+      </c>
+      <c r="E19" t="s">
+        <v>150</v>
+      </c>
+      <c r="F19" t="s">
+        <v>153</v>
+      </c>
+      <c r="G19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A44">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A46">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A47">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A48">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A49">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A50">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A51">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A52">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A53">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A54">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A55">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A56">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A57">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A58">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A59">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A60">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A61">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A62">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A63">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A64">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A65">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
